--- a/biology/Zoologie/Wilhelm_Ferdinand_Erichson/Wilhelm_Ferdinand_Erichson.xlsx
+++ b/biology/Zoologie/Wilhelm_Ferdinand_Erichson/Wilhelm_Ferdinand_Erichson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Ferdinand Erichson est un entomologiste allemand, né le 26 novembre 1809 à Stralsund et mort le 18 décembre 1848 à Berlin.
 Il est l'auteur de très nombreux articles sur les insectes, notamment dans la revue Archiv für Naturgeschichte (de).
@@ -512,10 +524,12 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a décrit le premier un grand nombre d'insectes, notamment des coléoptères, dont la dénomination complète du taxon fait référence à Erichson.  
-Dans son article sur les insectes d’Algérie de 1841[1], il a décrit 57 espèces qu'il pensait nouvelles. Après 170 ans de révision taxonomique il conserve la paternité d'une trentaine d'entre elles comme celle de Bolbelasmus bocchus (es) (Erichson, 1841) qu'il a décrit sous le nom Bolbocerus bocchus[1].
+Dans son article sur les insectes d’Algérie de 1841, il a décrit 57 espèces qu'il pensait nouvelles. Après 170 ans de révision taxonomique il conserve la paternité d'une trentaine d'entre elles comme celle de Bolbelasmus bocchus (es) (Erichson, 1841) qu'il a décrit sous le nom Bolbocerus bocchus.
 Le nombre d'espèces décrites par Wilhelm Ferdinand Erichson est particulièrement important. A titre d'exemple, la collection de coléoptères du Muséum suédois d'histoire naturelle comporte environ 1200 espèces dont Erichson est l'auteur.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genera Dyticorum. Berlin (1832)
 Die Käfer der Mark Brandenburg. Premier volume, Berlin (1837-1839)
